--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220502_110400.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220502_110400.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-05-02</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220502_110400.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220502_110400.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="268">
   <si>
     <t>사이트</t>
   </si>
@@ -733,7 +733,7 @@
     <t>MBC</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>빅플래닛메이드</t>
@@ -797,9 +797,6 @@
   </si>
   <si>
     <t>마크툽컴퍼니</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>플레디스</t>
@@ -1285,7 +1282,7 @@
         <v>231</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1311,7 +1308,7 @@
         <v>232</v>
       </c>
       <c r="H5" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1337,7 +1334,7 @@
         <v>233</v>
       </c>
       <c r="H6" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1389,7 +1386,7 @@
         <v>235</v>
       </c>
       <c r="H8" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1415,7 +1412,7 @@
         <v>233</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1441,7 +1438,7 @@
         <v>236</v>
       </c>
       <c r="H10" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1493,7 +1490,7 @@
         <v>232</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1519,7 +1516,7 @@
         <v>233</v>
       </c>
       <c r="H13" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1571,7 +1568,7 @@
         <v>233</v>
       </c>
       <c r="H15" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1597,7 +1594,7 @@
         <v>238</v>
       </c>
       <c r="H16" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1623,7 +1620,7 @@
         <v>239</v>
       </c>
       <c r="H17" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1649,7 +1646,7 @@
         <v>233</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1675,7 +1672,7 @@
         <v>233</v>
       </c>
       <c r="H19" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1727,7 +1724,7 @@
         <v>240</v>
       </c>
       <c r="H21" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1753,7 +1750,7 @@
         <v>235</v>
       </c>
       <c r="H22" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1779,7 +1776,7 @@
         <v>233</v>
       </c>
       <c r="H23" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1805,7 +1802,7 @@
         <v>241</v>
       </c>
       <c r="H24" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1831,7 +1828,7 @@
         <v>233</v>
       </c>
       <c r="H25" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1857,7 +1854,7 @@
         <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1883,7 +1880,7 @@
         <v>233</v>
       </c>
       <c r="H27" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1909,7 +1906,7 @@
         <v>243</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1935,7 +1932,7 @@
         <v>244</v>
       </c>
       <c r="H29" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1961,7 +1958,7 @@
         <v>245</v>
       </c>
       <c r="H30" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1987,7 +1984,7 @@
         <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2013,7 +2010,7 @@
         <v>246</v>
       </c>
       <c r="H32" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2039,7 +2036,7 @@
         <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2065,7 +2062,7 @@
         <v>248</v>
       </c>
       <c r="H34" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2091,7 +2088,7 @@
         <v>233</v>
       </c>
       <c r="H35" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2117,7 +2114,7 @@
         <v>249</v>
       </c>
       <c r="H36" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2143,7 +2140,7 @@
         <v>250</v>
       </c>
       <c r="H37" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2169,7 +2166,7 @@
         <v>245</v>
       </c>
       <c r="H38" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2247,7 +2244,7 @@
         <v>239</v>
       </c>
       <c r="H41" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2273,7 +2270,7 @@
         <v>249</v>
       </c>
       <c r="H42" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2429,7 +2426,7 @@
         <v>250</v>
       </c>
       <c r="H48" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2481,7 +2478,7 @@
         <v>239</v>
       </c>
       <c r="H50" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2507,7 +2504,7 @@
         <v>252</v>
       </c>
       <c r="H51" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2533,7 +2530,7 @@
         <v>253</v>
       </c>
       <c r="H52" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2585,7 +2582,7 @@
         <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2611,7 +2608,7 @@
         <v>254</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2637,7 +2634,7 @@
         <v>249</v>
       </c>
       <c r="H56" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2663,7 +2660,7 @@
         <v>255</v>
       </c>
       <c r="H57" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2689,7 +2686,7 @@
         <v>245</v>
       </c>
       <c r="H58" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2715,7 +2712,7 @@
         <v>238</v>
       </c>
       <c r="H59" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2741,7 +2738,7 @@
         <v>235</v>
       </c>
       <c r="H60" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2767,7 +2764,7 @@
         <v>256</v>
       </c>
       <c r="H61" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2793,7 +2790,7 @@
         <v>257</v>
       </c>
       <c r="H62" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2819,7 +2816,7 @@
         <v>258</v>
       </c>
       <c r="H63" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2845,7 +2842,7 @@
         <v>259</v>
       </c>
       <c r="H64" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2871,7 +2868,7 @@
         <v>249</v>
       </c>
       <c r="H65" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2923,7 +2920,7 @@
         <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2975,7 +2972,7 @@
         <v>245</v>
       </c>
       <c r="H69" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3001,7 +2998,7 @@
         <v>249</v>
       </c>
       <c r="H70" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3079,7 +3076,7 @@
         <v>245</v>
       </c>
       <c r="H73" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3157,7 +3154,7 @@
         <v>249</v>
       </c>
       <c r="H76" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3183,7 +3180,7 @@
         <v>242</v>
       </c>
       <c r="H77" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3209,7 +3206,7 @@
         <v>260</v>
       </c>
       <c r="H78" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3235,7 +3232,7 @@
         <v>235</v>
       </c>
       <c r="H79" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3261,7 +3258,7 @@
         <v>258</v>
       </c>
       <c r="H80" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3287,7 +3284,7 @@
         <v>232</v>
       </c>
       <c r="H81" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3313,7 +3310,7 @@
         <v>245</v>
       </c>
       <c r="H82" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3336,10 +3333,10 @@
         <v>217</v>
       </c>
       <c r="G83" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="H83" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3362,10 +3359,10 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3391,7 +3388,7 @@
         <v>239</v>
       </c>
       <c r="H85" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3417,7 +3414,7 @@
         <v>235</v>
       </c>
       <c r="H86" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3443,7 +3440,7 @@
         <v>252</v>
       </c>
       <c r="H87" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3544,10 +3541,10 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H91" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3570,10 +3567,10 @@
         <v>223</v>
       </c>
       <c r="G92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H92" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3596,10 +3593,10 @@
         <v>224</v>
       </c>
       <c r="G93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H93" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3622,10 +3619,10 @@
         <v>225</v>
       </c>
       <c r="G94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H94" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3651,7 +3648,7 @@
         <v>239</v>
       </c>
       <c r="H95" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3700,10 +3697,10 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H97" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3729,7 +3726,7 @@
         <v>245</v>
       </c>
       <c r="H98" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3752,10 +3749,10 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H99" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3781,7 +3778,7 @@
         <v>235</v>
       </c>
       <c r="H100" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3807,7 +3804,7 @@
         <v>249</v>
       </c>
       <c r="H101" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
